--- a/1.FiziceskieLica/Логин и пароль.xlsx
+++ b/1.FiziceskieLica/Логин и пароль.xlsx
@@ -1,7 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Автотесты на RPA\1.FiziceskieLica\"/>
@@ -18,49 +19,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Введите URL</t>
-  </si>
-  <si>
-    <r>
-      <t>http://ecm-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF008080"/>
-        <scheme val="none"/>
-      </rPr>
-      <t>demo.dev.lan</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <scheme val="none"/>
-      </rPr>
-      <t>/#/view/RP_PersonRegistry</t>
-    </r>
   </si>
   <si>
     <t>Введите логин</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Введите пароль</t>
   </si>
   <si>
-    <t>Master_0895</t>
+    <t>http://ecm-demo.dev.lan/#/view/RP_PersonRegistry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,14 +55,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF008080"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,7 +72,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
@@ -111,6 +92,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -125,8 +107,10 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -136,6 +120,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -150,8 +135,10 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -161,12 +148,14 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -177,12 +166,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -191,10 +192,10 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -440,47 +441,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" tabSelected="1" zoomScale="175" zoomScaleNormal="145" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="145" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85156" customWidth="1"/>
-    <col min="2" max="2" width="48.14063" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" thickBot="1" ht="15.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
-  <pageSetup r:id="rId1" paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.FiziceskieLica/Логин и пароль.xlsx
+++ b/1.FiziceskieLica/Логин и пароль.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="145" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
